--- a/random_list_interval.xlsx
+++ b/random_list_interval.xlsx
@@ -455,11 +455,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0:1:12</t>
+          <t>0:4:0</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -471,11 +471,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0:7:42</t>
+          <t>0:4:24</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -487,11 +487,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:8:6</t>
+          <t>0:6:18</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -503,11 +503,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0:9:6</t>
+          <t>0:7:48</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -535,11 +535,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0:10:12</t>
+          <t>0:14:18</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -551,11 +551,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0:11:30</t>
+          <t>0:16:18</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -567,11 +567,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0:17:18</t>
+          <t>0:17:0</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -583,11 +583,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0:18:6</t>
+          <t>0:19:36</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -615,11 +615,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0:21:48</t>
+          <t>0:25:24</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -631,11 +631,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0:22:6</t>
+          <t>0:28:54</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -647,11 +647,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0:23:18</t>
+          <t>0:29:18</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -663,11 +663,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0:26:30</t>
+          <t>0:29:36</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -695,11 +695,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0:30:36</t>
+          <t>0:33:12</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -711,11 +711,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0:35:30</t>
+          <t>0:33:36</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -727,11 +727,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0:35:48</t>
+          <t>0:35:6</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -743,11 +743,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0:36:36</t>
+          <t>0:39:48</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -775,11 +775,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>444</v>
+        <v>400</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0:44:24</t>
+          <t>0:40:0</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -791,11 +791,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0:45:54</t>
+          <t>0:44:18</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -807,11 +807,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0:47:0</t>
+          <t>0:46:42</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -823,11 +823,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0:49:6</t>
+          <t>0:48:42</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -855,11 +855,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0:53:48</t>
+          <t>0:51:6</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -871,11 +871,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0:54:54</t>
+          <t>0:53:12</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -887,11 +887,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0:55:30</t>
+          <t>0:54:30</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -903,11 +903,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0:58:6</t>
+          <t>0:55:0</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -935,11 +935,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1:1:0</t>
+          <t>1:0:36</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -951,11 +951,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1:4:0</t>
+          <t>1:1:0</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -967,11 +967,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1:5:30</t>
+          <t>1:3:6</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -983,11 +983,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1:9:30</t>
+          <t>1:7:6</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1031,11 +1031,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>717</v>
+        <v>735</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1:11:42</t>
+          <t>1:13:30</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1047,11 +1047,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>741</v>
+        <v>765</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1:14:6</t>
+          <t>1:16:30</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1063,11 +1063,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1:15:18</t>
+          <t>1:18:12</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1095,11 +1095,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:21:6</t>
+          <t>1:21:36</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1111,11 +1111,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:21:36</t>
+          <t>1:24:18</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -1127,11 +1127,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1:27:42</t>
+          <t>1:25:24</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1143,11 +1143,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1:28:30</t>
+          <t>1:28:48</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1175,11 +1175,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>948</v>
+        <v>910</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1:34:48</t>
+          <t>1:31:0</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -1191,11 +1191,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1:35:30</t>
+          <t>1:32:12</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1207,11 +1207,11 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1:36:0</t>
+          <t>1:37:12</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1223,11 +1223,11 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:37:24</t>
+          <t>1:39:36</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1255,11 +1255,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1:40:48</t>
+          <t>1:41:30</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1271,11 +1271,11 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:43:24</t>
+          <t>1:42:48</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -1287,11 +1287,11 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1:45:18</t>
+          <t>1:44:24</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1303,11 +1303,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1:47:36</t>
+          <t>1:46:24</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1335,11 +1335,11 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1:50:54</t>
+          <t>1:50:30</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1351,11 +1351,11 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1121</v>
+        <v>1130</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1:52:6</t>
+          <t>1:53:0</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1367,11 +1367,11 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1131</v>
+        <v>1184</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1:53:6</t>
+          <t>1:58:24</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1415,11 +1415,11 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2:2:0</t>
+          <t>2:3:30</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1431,11 +1431,11 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1221</v>
+        <v>1247</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2:2:6</t>
+          <t>2:4:42</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1447,11 +1447,11 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1253</v>
+        <v>1260</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2:5:18</t>
+          <t>2:6:0</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1463,11 +1463,11 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1262</v>
+        <v>1291</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2:6:12</t>
+          <t>2:9:6</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1495,11 +1495,11 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1303</v>
+        <v>1324</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2:10:18</t>
+          <t>2:12:24</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1511,11 +1511,11 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1327</v>
+        <v>1334</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2:12:42</t>
+          <t>2:13:24</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1527,11 +1527,11 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2:14:36</t>
+          <t>2:16:12</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1543,11 +1543,11 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1361</v>
+        <v>1390</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2:16:6</t>
+          <t>2:19:0</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1575,11 +1575,11 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1466</v>
+        <v>1401</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2:26:36</t>
+          <t>2:20:6</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1591,11 +1591,11 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1485</v>
+        <v>1409</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2:28:30</t>
+          <t>2:20:54</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1607,11 +1607,11 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1488</v>
+        <v>1428</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2:28:48</t>
+          <t>2:22:48</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1623,11 +1623,11 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2:29:12</t>
+          <t>2:29:24</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1655,11 +1655,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1524</v>
+        <v>1503</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2:32:24</t>
+          <t>2:30:18</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1671,11 +1671,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2:32:42</t>
+          <t>2:31:48</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1687,11 +1687,11 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1540</v>
+        <v>1581</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2:34:0</t>
+          <t>2:38:6</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1703,11 +1703,11 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2:39:48</t>
+          <t>2:38:30</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1735,11 +1735,11 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2:40:30</t>
+          <t>2:40:48</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1751,11 +1751,11 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1615</v>
+        <v>1627</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2:41:30</t>
+          <t>2:42:42</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1767,11 +1767,11 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1668</v>
+        <v>1640</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2:46:48</t>
+          <t>2:44:0</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1783,11 +1783,11 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2:47:30</t>
+          <t>2:48:42</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1815,11 +1815,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1713</v>
+        <v>1748</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2:51:18</t>
+          <t>2:54:48</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -1831,11 +1831,11 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1719</v>
+        <v>1760</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2:51:54</t>
+          <t>2:56:0</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -1847,11 +1847,11 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1753</v>
+        <v>1796</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2:55:18</t>
+          <t>2:59:36</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -1863,11 +1863,11 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1784</v>
+        <v>1797</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2:58:24</t>
+          <t>2:59:42</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -1895,11 +1895,11 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1824</v>
+        <v>1806</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>3:2:24</t>
+          <t>3:0:36</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -1911,11 +1911,11 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1828</v>
+        <v>1817</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>3:2:48</t>
+          <t>3:1:42</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -1927,11 +1927,11 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1856</v>
+        <v>1825</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>3:5:36</t>
+          <t>3:2:30</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -1943,11 +1943,11 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1879</v>
+        <v>1891</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>3:7:54</t>
+          <t>3:9:6</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -1975,11 +1975,11 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3:11:24</t>
+          <t>3:10:54</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -1991,11 +1991,11 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1944</v>
+        <v>1936</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>3:14:24</t>
+          <t>3:13:36</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2007,11 +2007,11 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>3:15:18</t>
+          <t>3:19:0</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -2023,11 +2023,11 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1964</v>
+        <v>1993</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>3:16:24</t>
+          <t>3:19:18</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2055,11 +2055,11 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2016</v>
+        <v>2077</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>3:21:36</t>
+          <t>3:27:42</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -2071,11 +2071,11 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2048</v>
+        <v>2079</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3:24:48</t>
+          <t>3:27:54</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -2087,11 +2087,11 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3:28:6</t>
+          <t>3:28:12</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -2103,11 +2103,11 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2085</v>
+        <v>2087</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>3:28:30</t>
+          <t>3:28:42</t>
         </is>
       </c>
       <c r="D105" t="n">
@@ -2135,11 +2135,11 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2131</v>
+        <v>2100</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3:33:6</t>
+          <t>3:30:0</t>
         </is>
       </c>
       <c r="D107" t="n">
@@ -2151,11 +2151,11 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2146</v>
+        <v>2107</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>3:34:36</t>
+          <t>3:30:42</t>
         </is>
       </c>
       <c r="D108" t="n">
@@ -2167,11 +2167,11 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2165</v>
+        <v>2140</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>3:36:30</t>
+          <t>3:34:0</t>
         </is>
       </c>
       <c r="D109" t="n">
@@ -2183,11 +2183,11 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2179</v>
+        <v>2191</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>3:37:54</t>
+          <t>3:39:6</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2215,11 +2215,11 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2217</v>
+        <v>2229</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>3:41:42</t>
+          <t>3:42:54</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2231,11 +2231,11 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2263</v>
+        <v>2234</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>3:46:18</t>
+          <t>3:43:24</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2247,11 +2247,11 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2269</v>
+        <v>2256</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>3:46:54</t>
+          <t>3:45:36</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2263,11 +2263,11 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3:49:6</t>
+          <t>3:48:48</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2295,11 +2295,11 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2307</v>
+        <v>2334</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3:50:42</t>
+          <t>3:53:24</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2311,11 +2311,11 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2310</v>
+        <v>2360</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3:51:0</t>
+          <t>3:56:0</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2327,11 +2327,11 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2320</v>
+        <v>2361</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3:52:0</t>
+          <t>3:56:6</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2343,11 +2343,11 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2347</v>
+        <v>2382</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3:54:42</t>
+          <t>3:58:12</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2375,11 +2375,11 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2405</v>
+        <v>2419</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4:0:30</t>
+          <t>4:1:54</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2391,11 +2391,11 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2411</v>
+        <v>2445</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>4:1:6</t>
+          <t>4:4:30</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2407,11 +2407,11 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2465</v>
+        <v>2448</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>4:6:30</t>
+          <t>4:4:48</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2423,11 +2423,11 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2467</v>
+        <v>2481</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>4:6:42</t>
+          <t>4:8:6</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2455,11 +2455,11 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>4:10:42</t>
+          <t>4:10:36</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2471,11 +2471,11 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2536</v>
+        <v>2534</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>4:13:36</t>
+          <t>4:13:24</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2487,11 +2487,11 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2553</v>
+        <v>2547</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>4:15:18</t>
+          <t>4:14:42</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2503,11 +2503,11 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2592</v>
+        <v>2589</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>4:19:12</t>
+          <t>4:18:54</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2535,11 +2535,11 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2638</v>
+        <v>2652</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>4:23:48</t>
+          <t>4:25:12</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2551,11 +2551,11 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2643</v>
+        <v>2665</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>4:24:18</t>
+          <t>4:26:30</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2567,11 +2567,11 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>2653</v>
+        <v>2678</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>4:25:18</t>
+          <t>4:27:48</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2583,11 +2583,11 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>4:29:0</t>
+          <t>4:28:0</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2615,11 +2615,11 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>2708</v>
+        <v>2737</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>4:30:48</t>
+          <t>4:33:42</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2631,11 +2631,11 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2724</v>
+        <v>2742</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4:32:24</t>
+          <t>4:34:12</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2647,11 +2647,11 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4:35:54</t>
+          <t>4:35:36</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2663,11 +2663,11 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2796</v>
+        <v>2783</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4:39:36</t>
+          <t>4:38:18</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2695,11 +2695,11 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2816</v>
+        <v>2823</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>4:41:36</t>
+          <t>4:42:18</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -2711,11 +2711,11 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2825</v>
+        <v>2854</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>4:42:30</t>
+          <t>4:45:24</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -2727,11 +2727,11 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2830</v>
+        <v>2868</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>4:43:0</t>
+          <t>4:46:48</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -2743,11 +2743,11 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2832</v>
+        <v>2869</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>4:43:12</t>
+          <t>4:46:54</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -2775,11 +2775,11 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2905</v>
+        <v>2929</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4:50:30</t>
+          <t>4:52:54</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -2791,11 +2791,11 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2973</v>
+        <v>2952</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>4:57:18</t>
+          <t>4:55:12</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -2807,11 +2807,11 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2977</v>
+        <v>2955</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>4:57:42</t>
+          <t>4:55:30</t>
         </is>
       </c>
       <c r="D149" t="n">
@@ -2823,11 +2823,11 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2986</v>
+        <v>2976</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>4:58:36</t>
+          <t>4:57:36</t>
         </is>
       </c>
       <c r="D150" t="n">
@@ -2855,11 +2855,11 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3025</v>
+        <v>3014</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>5:2:30</t>
+          <t>5:1:24</t>
         </is>
       </c>
       <c r="D152" t="n">
@@ -2871,11 +2871,11 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3029</v>
+        <v>3043</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>5:2:54</t>
+          <t>5:4:18</t>
         </is>
       </c>
       <c r="D153" t="n">
@@ -2887,11 +2887,11 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3083</v>
+        <v>3048</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>5:8:18</t>
+          <t>5:4:48</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -2903,11 +2903,11 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3095</v>
+        <v>3081</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>5:9:30</t>
+          <t>5:8:6</t>
         </is>
       </c>
       <c r="D155" t="n">
@@ -2935,11 +2935,11 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3108</v>
+        <v>3130</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>5:10:48</t>
+          <t>5:13:0</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -2951,11 +2951,11 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3129</v>
+        <v>3155</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>5:12:54</t>
+          <t>5:15:30</t>
         </is>
       </c>
       <c r="D158" t="n">
@@ -2967,11 +2967,11 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3139</v>
+        <v>3188</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>5:13:54</t>
+          <t>5:18:48</t>
         </is>
       </c>
       <c r="D159" t="n">
@@ -2983,11 +2983,11 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3151</v>
+        <v>3190</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>5:15:6</t>
+          <t>5:19:0</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -3015,11 +3015,11 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3232</v>
+        <v>3223</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>5:23:12</t>
+          <t>5:22:18</t>
         </is>
       </c>
       <c r="D162" t="n">
@@ -3031,11 +3031,11 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>5:23:36</t>
+          <t>5:23:42</t>
         </is>
       </c>
       <c r="D163" t="n">
@@ -3047,11 +3047,11 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3250</v>
+        <v>3263</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>5:25:0</t>
+          <t>5:26:18</t>
         </is>
       </c>
       <c r="D164" t="n">
@@ -3063,11 +3063,11 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3276</v>
+        <v>3283</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>5:27:36</t>
+          <t>5:28:18</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -3095,11 +3095,11 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3308</v>
+        <v>3304</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>5:30:48</t>
+          <t>5:30:24</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3111,11 +3111,11 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>5:31:12</t>
+          <t>5:31:6</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3127,11 +3127,11 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3315</v>
+        <v>3330</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>5:31:30</t>
+          <t>5:33:0</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3143,11 +3143,11 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3319</v>
+        <v>3362</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>5:31:54</t>
+          <t>5:36:12</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3175,11 +3175,11 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3430</v>
+        <v>3415</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>5:43:0</t>
+          <t>5:41:30</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3191,11 +3191,11 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3436</v>
+        <v>3450</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>5:43:36</t>
+          <t>5:45:0</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3207,11 +3207,11 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3465</v>
+        <v>3461</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>5:46:30</t>
+          <t>5:46:6</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3223,11 +3223,11 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3489</v>
+        <v>3479</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>5:48:54</t>
+          <t>5:47:54</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3255,11 +3255,11 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3512</v>
+        <v>3508</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>5:51:12</t>
+          <t>5:50:48</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3271,11 +3271,11 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3539</v>
+        <v>3520</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>5:53:54</t>
+          <t>5:52:0</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3287,11 +3287,11 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3568</v>
+        <v>3536</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>5:56:48</t>
+          <t>5:53:36</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3303,11 +3303,11 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3584</v>
+        <v>3586</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>5:58:24</t>
+          <t>5:58:36</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3335,11 +3335,11 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3620</v>
+        <v>3628</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>6:2:0</t>
+          <t>6:2:48</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3351,11 +3351,11 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3636</v>
+        <v>3642</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>6:3:36</t>
+          <t>6:4:12</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3367,11 +3367,11 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3658</v>
+        <v>3664</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>6:5:48</t>
+          <t>6:6:24</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3383,11 +3383,11 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3679</v>
+        <v>3690</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>6:7:54</t>
+          <t>6:9:0</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3415,11 +3415,11 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>3746</v>
+        <v>3722</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>6:14:36</t>
+          <t>6:12:12</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3431,11 +3431,11 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>3777</v>
+        <v>3738</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>6:17:42</t>
+          <t>6:13:48</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3447,11 +3447,11 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>3781</v>
+        <v>3757</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>6:18:6</t>
+          <t>6:15:42</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3463,11 +3463,11 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3782</v>
+        <v>3760</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>6:18:12</t>
+          <t>6:16:0</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3495,11 +3495,11 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6:20:36</t>
+          <t>6:20:42</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3511,11 +3511,11 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3809</v>
+        <v>3873</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>6:20:54</t>
+          <t>6:27:18</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3527,11 +3527,11 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>3854</v>
+        <v>3886</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>6:25:24</t>
+          <t>6:28:36</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3543,11 +3543,11 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>3855</v>
+        <v>3887</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>6:25:30</t>
+          <t>6:28:42</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3575,11 +3575,11 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>3903</v>
+        <v>3913</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>6:30:18</t>
+          <t>6:31:18</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3591,11 +3591,11 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>3912</v>
+        <v>3948</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>6:31:12</t>
+          <t>6:34:48</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -3607,11 +3607,11 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>3930</v>
+        <v>3972</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>6:33:0</t>
+          <t>6:37:12</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -3623,11 +3623,11 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>3965</v>
+        <v>3989</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>6:36:30</t>
+          <t>6:38:54</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -3655,11 +3655,11 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4005</v>
+        <v>4014</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>6:40:30</t>
+          <t>6:41:24</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -3671,11 +3671,11 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>6:41:12</t>
+          <t>6:41:30</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -3687,11 +3687,11 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4020</v>
+        <v>4035</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>6:42:0</t>
+          <t>6:43:30</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -3703,11 +3703,11 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>4045</v>
+        <v>4082</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>6:44:30</t>
+          <t>6:48:12</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -3735,11 +3735,11 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4123</v>
+        <v>4106</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>6:52:18</t>
+          <t>6:50:36</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -3751,11 +3751,11 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4131</v>
+        <v>4159</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>6:53:6</t>
+          <t>6:55:54</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -3767,11 +3767,11 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>4155</v>
+        <v>4163</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>6:55:30</t>
+          <t>6:56:18</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -3783,11 +3783,11 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4156</v>
+        <v>4183</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>6:55:36</t>
+          <t>6:58:18</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -3815,11 +3815,11 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4215</v>
+        <v>4203</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>7:1:30</t>
+          <t>7:0:18</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -3831,11 +3831,11 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4226</v>
+        <v>4216</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>7:2:36</t>
+          <t>7:1:36</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -3847,11 +3847,11 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4237</v>
+        <v>4217</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>7:3:42</t>
+          <t>7:1:42</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -3863,11 +3863,11 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4256</v>
+        <v>4227</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>7:5:36</t>
+          <t>7:2:42</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -3895,11 +3895,11 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4312</v>
+        <v>4330</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>7:11:12</t>
+          <t>7:13:0</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -3911,11 +3911,11 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>7:15:0</t>
+          <t>7:14:48</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -3927,11 +3927,11 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4356</v>
+        <v>4359</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>7:15:36</t>
+          <t>7:15:54</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -3943,11 +3943,11 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4389</v>
+        <v>4372</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>7:18:54</t>
+          <t>7:17:12</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -3991,11 +3991,11 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4413</v>
+        <v>4450</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>7:21:18</t>
+          <t>7:25:0</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4007,11 +4007,11 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4433</v>
+        <v>4474</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>7:23:18</t>
+          <t>7:27:24</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4023,11 +4023,11 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>7:28:0</t>
+          <t>7:28:6</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4055,11 +4055,11 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4562</v>
+        <v>4505</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>7:36:12</t>
+          <t>7:30:30</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4071,11 +4071,11 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4565</v>
+        <v>4586</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>7:36:30</t>
+          <t>7:38:36</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4087,11 +4087,11 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4576</v>
+        <v>4589</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>7:37:36</t>
+          <t>7:38:54</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4103,11 +4103,11 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4579</v>
+        <v>4591</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>7:37:54</t>
+          <t>7:39:6</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4135,11 +4135,11 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4625</v>
+        <v>4612</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>7:42:30</t>
+          <t>7:41:12</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4151,11 +4151,11 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4637</v>
+        <v>4629</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>7:43:42</t>
+          <t>7:42:54</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4167,11 +4167,11 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4648</v>
+        <v>4686</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>7:44:48</t>
+          <t>7:48:36</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4183,11 +4183,11 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>4658</v>
+        <v>4687</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>7:45:48</t>
+          <t>7:48:42</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4215,11 +4215,11 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4722</v>
+        <v>4765</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>7:52:12</t>
+          <t>7:56:30</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4231,11 +4231,11 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4739</v>
+        <v>4780</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>7:53:54</t>
+          <t>7:58:0</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4247,11 +4247,11 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4742</v>
+        <v>4788</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>7:54:12</t>
+          <t>7:58:48</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4263,11 +4263,11 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4745</v>
+        <v>4794</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>7:54:30</t>
+          <t>7:59:24</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4295,11 +4295,11 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4810</v>
+        <v>4827</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>8:1:0</t>
+          <t>8:2:42</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4311,11 +4311,11 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4824</v>
+        <v>4831</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>8:2:24</t>
+          <t>8:3:6</t>
         </is>
       </c>
       <c r="D243" t="n">
@@ -4327,11 +4327,11 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4832</v>
+        <v>4838</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>8:3:12</t>
+          <t>8:3:48</t>
         </is>
       </c>
       <c r="D244" t="n">
@@ -4343,11 +4343,11 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4871</v>
+        <v>4886</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8:7:6</t>
+          <t>8:8:36</t>
         </is>
       </c>
       <c r="D245" t="n">
@@ -4375,11 +4375,11 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4923</v>
+        <v>4928</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>8:12:18</t>
+          <t>8:12:48</t>
         </is>
       </c>
       <c r="D247" t="n">
@@ -4391,11 +4391,11 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4964</v>
+        <v>4942</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>8:16:24</t>
+          <t>8:14:12</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -4407,11 +4407,11 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4980</v>
+        <v>4961</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8:18:0</t>
+          <t>8:16:6</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -4423,11 +4423,11 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4986</v>
+        <v>4977</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>8:18:36</t>
+          <t>8:17:42</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -4455,11 +4455,11 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5014</v>
+        <v>5041</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>8:21:24</t>
+          <t>8:24:6</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -4471,11 +4471,11 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>5041</v>
+        <v>5045</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>8:24:6</t>
+          <t>8:24:30</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -4487,11 +4487,11 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5044</v>
+        <v>5073</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8:24:24</t>
+          <t>8:27:18</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -4503,11 +4503,11 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>5070</v>
+        <v>5090</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8:27:0</t>
+          <t>8:29:0</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -4535,11 +4535,11 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>8:30:30</t>
+          <t>8:30:24</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -4551,11 +4551,11 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5135</v>
+        <v>5150</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>8:33:30</t>
+          <t>8:35:0</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -4567,11 +4567,11 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>5166</v>
+        <v>5167</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>8:36:36</t>
+          <t>8:36:42</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -4583,11 +4583,11 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5175</v>
+        <v>5183</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>8:37:30</t>
+          <t>8:38:18</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -4615,11 +4615,11 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5232</v>
+        <v>5266</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8:43:12</t>
+          <t>8:46:36</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -4631,11 +4631,11 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5263</v>
+        <v>5274</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>8:46:18</t>
+          <t>8:47:24</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -4647,11 +4647,11 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5275</v>
+        <v>5279</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>8:47:30</t>
+          <t>8:47:54</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -4663,11 +4663,11 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8:48:30</t>
+          <t>8:48:24</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -4695,11 +4695,11 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5304</v>
+        <v>5331</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>8:50:24</t>
+          <t>8:53:6</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -4711,11 +4711,11 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5359</v>
+        <v>5354</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>8:55:54</t>
+          <t>8:55:24</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -4727,11 +4727,11 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5378</v>
+        <v>5366</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>8:57:48</t>
+          <t>8:56:36</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -4743,11 +4743,11 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5383</v>
+        <v>5382</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>8:58:18</t>
+          <t>8:58:12</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -4775,11 +4775,11 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>9:1:24</t>
+          <t>9:1:12</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -4791,11 +4791,11 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5424</v>
+        <v>5422</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>9:2:24</t>
+          <t>9:2:12</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -4807,11 +4807,11 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>5457</v>
+        <v>5423</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>9:5:42</t>
+          <t>9:2:18</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -4823,11 +4823,11 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5482</v>
+        <v>5478</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>9:8:12</t>
+          <t>9:7:48</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -4855,11 +4855,11 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5545</v>
+        <v>5529</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>9:14:30</t>
+          <t>9:12:54</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -4871,11 +4871,11 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5567</v>
+        <v>5532</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>9:16:42</t>
+          <t>9:13:12</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -4887,11 +4887,11 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5569</v>
+        <v>5553</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>9:16:54</t>
+          <t>9:15:18</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -4903,11 +4903,11 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5577</v>
+        <v>5596</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>9:17:42</t>
+          <t>9:19:36</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -4935,11 +4935,11 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5649</v>
+        <v>5604</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>9:24:54</t>
+          <t>9:20:24</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -4951,11 +4951,11 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5668</v>
+        <v>5632</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>9:26:48</t>
+          <t>9:23:12</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -4967,11 +4967,11 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>5691</v>
+        <v>5653</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>9:29:6</t>
+          <t>9:25:18</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -4983,11 +4983,11 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5695</v>
+        <v>5685</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>9:29:30</t>
+          <t>9:28:30</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5015,11 +5015,11 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>5709</v>
+        <v>5732</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>9:30:54</t>
+          <t>9:33:12</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5031,11 +5031,11 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5758</v>
+        <v>5785</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>9:35:48</t>
+          <t>9:38:30</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5047,11 +5047,11 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5776</v>
+        <v>5787</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>9:37:36</t>
+          <t>9:38:42</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5063,11 +5063,11 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>5785</v>
+        <v>5789</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>9:38:30</t>
+          <t>9:38:54</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5095,11 +5095,11 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5832</v>
+        <v>5802</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>9:43:12</t>
+          <t>9:40:12</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5111,11 +5111,11 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5869</v>
+        <v>5818</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>9:46:54</t>
+          <t>9:41:48</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5127,11 +5127,11 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5870</v>
+        <v>5832</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>9:47:0</t>
+          <t>9:43:12</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5143,11 +5143,11 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5892</v>
+        <v>5854</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>9:49:12</t>
+          <t>9:45:24</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5175,11 +5175,11 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5907</v>
+        <v>5911</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>9:50:42</t>
+          <t>9:51:6</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5191,11 +5191,11 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5953</v>
+        <v>5935</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>9:55:18</t>
+          <t>9:53:30</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5207,11 +5207,11 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5959</v>
+        <v>5956</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>9:55:54</t>
+          <t>9:55:36</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5223,11 +5223,11 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>5972</v>
+        <v>5979</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>9:57:12</t>
+          <t>9:57:54</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5255,11 +5255,11 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6028</v>
+        <v>6016</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>10:2:48</t>
+          <t>10:1:36</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5271,11 +5271,11 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6042</v>
+        <v>6053</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>10:4:12</t>
+          <t>10:5:18</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5287,11 +5287,11 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6087</v>
+        <v>6064</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>10:8:42</t>
+          <t>10:6:24</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5303,11 +5303,11 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6093</v>
+        <v>6066</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>10:9:18</t>
+          <t>10:6:36</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5335,11 +5335,11 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6164</v>
+        <v>6109</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>10:16:24</t>
+          <t>10:10:54</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5351,11 +5351,11 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>6165</v>
+        <v>6111</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>10:16:30</t>
+          <t>10:11:6</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5367,11 +5367,11 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>6170</v>
+        <v>6122</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>10:17:0</t>
+          <t>10:12:12</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -5383,11 +5383,11 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>6172</v>
+        <v>6142</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>10:17:12</t>
+          <t>10:14:12</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -5415,11 +5415,11 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>6260</v>
+        <v>6204</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>10:26:0</t>
+          <t>10:20:24</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -5431,11 +5431,11 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>6274</v>
+        <v>6214</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>10:27:24</t>
+          <t>10:21:24</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -5447,11 +5447,11 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>6282</v>
+        <v>6288</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>10:28:12</t>
+          <t>10:28:48</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -5463,11 +5463,11 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>6290</v>
+        <v>6297</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>10:29:0</t>
+          <t>10:29:42</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -5495,11 +5495,11 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>6314</v>
+        <v>6307</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>10:31:24</t>
+          <t>10:30:42</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -5511,11 +5511,11 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>6324</v>
+        <v>6310</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>10:32:24</t>
+          <t>10:31:0</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -5527,11 +5527,11 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>6370</v>
+        <v>6324</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>10:37:0</t>
+          <t>10:32:24</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -5543,11 +5543,11 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>6379</v>
+        <v>6359</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>10:37:54</t>
+          <t>10:35:54</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -5575,11 +5575,11 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>6406</v>
+        <v>6411</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>10:40:36</t>
+          <t>10:41:6</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -5591,11 +5591,11 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>6412</v>
+        <v>6416</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>10:41:12</t>
+          <t>10:41:36</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -5607,11 +5607,11 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>6471</v>
+        <v>6429</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>10:47:6</t>
+          <t>10:42:54</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -5623,11 +5623,11 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>6488</v>
+        <v>6464</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>10:48:48</t>
+          <t>10:46:24</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -5655,11 +5655,11 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>6540</v>
+        <v>6553</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>10:54:0</t>
+          <t>10:55:18</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -5671,11 +5671,11 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>6541</v>
+        <v>6565</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>10:54:6</t>
+          <t>10:56:30</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -5687,11 +5687,11 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>6563</v>
+        <v>6582</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>10:56:18</t>
+          <t>10:58:12</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -5703,11 +5703,11 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>6593</v>
+        <v>6595</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>10:59:18</t>
+          <t>10:59:30</t>
         </is>
       </c>
       <c r="D330" t="n">
@@ -5735,11 +5735,11 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>6616</v>
+        <v>6632</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>11:1:36</t>
+          <t>11:3:12</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -5751,11 +5751,11 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>6634</v>
+        <v>6678</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>11:3:24</t>
+          <t>11:7:48</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -5767,11 +5767,11 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>6651</v>
+        <v>6685</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>11:5:6</t>
+          <t>11:8:30</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -5783,11 +5783,11 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>6652</v>
+        <v>6688</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>11:5:12</t>
+          <t>11:8:48</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -5815,11 +5815,11 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>6710</v>
+        <v>6728</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>11:11:0</t>
+          <t>11:12:48</t>
         </is>
       </c>
       <c r="D337" t="n">
@@ -5831,11 +5831,11 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>6713</v>
+        <v>6732</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>11:11:18</t>
+          <t>11:13:12</t>
         </is>
       </c>
       <c r="D338" t="n">
@@ -5847,11 +5847,11 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>6714</v>
+        <v>6733</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>11:11:24</t>
+          <t>11:13:18</t>
         </is>
       </c>
       <c r="D339" t="n">
@@ -5863,11 +5863,11 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>6740</v>
+        <v>6743</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>11:14:0</t>
+          <t>11:14:18</t>
         </is>
       </c>
       <c r="D340" t="n">
@@ -5895,11 +5895,11 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>6846</v>
+        <v>6823</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>11:24:36</t>
+          <t>11:22:18</t>
         </is>
       </c>
       <c r="D342" t="n">
@@ -5911,11 +5911,11 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>6874</v>
+        <v>6837</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>11:27:24</t>
+          <t>11:23:42</t>
         </is>
       </c>
       <c r="D343" t="n">
@@ -5927,11 +5927,11 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>6880</v>
+        <v>6843</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>11:28:0</t>
+          <t>11:24:18</t>
         </is>
       </c>
       <c r="D344" t="n">
@@ -5943,11 +5943,11 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>6898</v>
+        <v>6870</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>11:29:48</t>
+          <t>11:27:0</t>
         </is>
       </c>
       <c r="D345" t="n">
@@ -5975,11 +5975,11 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>6927</v>
+        <v>6912</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>11:32:42</t>
+          <t>11:31:12</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -5991,11 +5991,11 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>6935</v>
+        <v>6941</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>11:33:30</t>
+          <t>11:34:6</t>
         </is>
       </c>
       <c r="D348" t="n">
@@ -6007,11 +6007,11 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6954</v>
+        <v>6962</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>11:35:24</t>
+          <t>11:36:12</t>
         </is>
       </c>
       <c r="D349" t="n">
@@ -6023,11 +6023,11 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>6985</v>
+        <v>6982</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>11:38:30</t>
+          <t>11:38:12</t>
         </is>
       </c>
       <c r="D350" t="n">
@@ -6055,11 +6055,11 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>7015</v>
+        <v>7007</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>11:41:30</t>
+          <t>11:40:42</t>
         </is>
       </c>
       <c r="D352" t="n">
@@ -6071,11 +6071,11 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>7067</v>
+        <v>7018</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>11:46:42</t>
+          <t>11:41:48</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -6087,11 +6087,11 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>7072</v>
+        <v>7063</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>11:47:12</t>
+          <t>11:46:18</t>
         </is>
       </c>
       <c r="D354" t="n">
@@ -6103,11 +6103,11 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>7074</v>
+        <v>7068</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>11:47:24</t>
+          <t>11:46:48</t>
         </is>
       </c>
       <c r="D355" t="n">
@@ -6135,11 +6135,11 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>7103</v>
+        <v>7131</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>11:50:18</t>
+          <t>11:53:6</t>
         </is>
       </c>
       <c r="D357" t="n">
@@ -6151,11 +6151,11 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>7106</v>
+        <v>7176</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>11:50:36</t>
+          <t>11:57:36</t>
         </is>
       </c>
       <c r="D358" t="n">
@@ -6167,11 +6167,11 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>7130</v>
+        <v>7177</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>11:53:0</t>
+          <t>11:57:42</t>
         </is>
       </c>
       <c r="D359" t="n">
@@ -6183,11 +6183,11 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>7170</v>
+        <v>7195</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>11:57:0</t>
+          <t>11:59:30</t>
         </is>
       </c>
       <c r="D360" t="n">
@@ -6215,11 +6215,11 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>7207</v>
+        <v>7200</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>12:0:42</t>
+          <t>12:0:0</t>
         </is>
       </c>
       <c r="D362" t="n">
@@ -6247,11 +6247,11 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>7254</v>
+        <v>7236</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>12:5:24</t>
+          <t>12:3:36</t>
         </is>
       </c>
       <c r="D364" t="n">
@@ -6263,11 +6263,11 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7258</v>
+        <v>7264</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>12:5:48</t>
+          <t>12:6:24</t>
         </is>
       </c>
       <c r="D365" t="n">
@@ -6295,11 +6295,11 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>7330</v>
+        <v>7305</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>12:13:0</t>
+          <t>12:10:30</t>
         </is>
       </c>
       <c r="D367" t="n">
@@ -6311,11 +6311,11 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>7364</v>
+        <v>7308</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>12:16:24</t>
+          <t>12:10:48</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -6327,11 +6327,11 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>7366</v>
+        <v>7321</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>12:16:36</t>
+          <t>12:12:6</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -6343,11 +6343,11 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>7383</v>
+        <v>7369</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>12:18:18</t>
+          <t>12:16:54</t>
         </is>
       </c>
       <c r="D370" t="n">
@@ -6375,11 +6375,11 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>7414</v>
+        <v>7428</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>12:21:24</t>
+          <t>12:22:48</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -6391,11 +6391,11 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>7445</v>
+        <v>7457</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>12:24:30</t>
+          <t>12:25:42</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -6407,11 +6407,11 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7471</v>
+        <v>7475</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>12:27:6</t>
+          <t>12:27:30</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -6423,11 +6423,11 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>7477</v>
+        <v>7497</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>12:27:42</t>
+          <t>12:29:42</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -6455,11 +6455,11 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>7508</v>
+        <v>7524</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>12:30:48</t>
+          <t>12:32:24</t>
         </is>
       </c>
       <c r="D377" t="n">
@@ -6471,11 +6471,11 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>7519</v>
+        <v>7542</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>12:31:54</t>
+          <t>12:34:12</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -6487,11 +6487,11 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>7543</v>
+        <v>7546</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>12:34:18</t>
+          <t>12:34:36</t>
         </is>
       </c>
       <c r="D379" t="n">
@@ -6503,11 +6503,11 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>7569</v>
+        <v>7592</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>12:36:54</t>
+          <t>12:39:12</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -6535,11 +6535,11 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>7601</v>
+        <v>7604</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>12:40:6</t>
+          <t>12:40:24</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -6551,11 +6551,11 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>7616</v>
+        <v>7626</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>12:41:36</t>
+          <t>12:42:36</t>
         </is>
       </c>
       <c r="D383" t="n">
@@ -6567,11 +6567,11 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>7643</v>
+        <v>7629</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>12:44:18</t>
+          <t>12:42:54</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -6583,11 +6583,11 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>7663</v>
+        <v>7693</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>12:46:18</t>
+          <t>12:49:18</t>
         </is>
       </c>
       <c r="D385" t="n">
@@ -6615,11 +6615,11 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7719</v>
+        <v>7710</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>12:51:54</t>
+          <t>12:51:0</t>
         </is>
       </c>
       <c r="D387" t="n">
@@ -6631,11 +6631,11 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>7739</v>
+        <v>7714</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>12:53:54</t>
+          <t>12:51:24</t>
         </is>
       </c>
       <c r="D388" t="n">
@@ -6647,11 +6647,11 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>7740</v>
+        <v>7773</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>12:54:0</t>
+          <t>12:57:18</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -6663,11 +6663,11 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>7794</v>
+        <v>7795</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>12:59:24</t>
+          <t>12:59:30</t>
         </is>
       </c>
       <c r="D390" t="n">
@@ -6695,11 +6695,11 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>7815</v>
+        <v>7807</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13:1:30</t>
+          <t>13:0:42</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -6711,11 +6711,11 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>7834</v>
+        <v>7851</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13:3:24</t>
+          <t>13:5:6</t>
         </is>
       </c>
       <c r="D393" t="n">
@@ -6727,11 +6727,11 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>7861</v>
+        <v>7877</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13:6:6</t>
+          <t>13:7:42</t>
         </is>
       </c>
       <c r="D394" t="n">
@@ -6743,11 +6743,11 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>7881</v>
+        <v>7885</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13:8:6</t>
+          <t>13:8:30</t>
         </is>
       </c>
       <c r="D395" t="n">
@@ -6775,11 +6775,11 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>7964</v>
+        <v>7916</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:16:24</t>
+          <t>13:11:36</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -6791,11 +6791,11 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>7988</v>
+        <v>7917</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:18:48</t>
+          <t>13:11:42</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -6807,11 +6807,11 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7989</v>
+        <v>7979</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13:18:54</t>
+          <t>13:17:54</t>
         </is>
       </c>
       <c r="D399" t="n">
@@ -6823,11 +6823,11 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7998</v>
+        <v>7986</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13:19:48</t>
+          <t>13:18:36</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -6855,11 +6855,11 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>8011</v>
+        <v>8031</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13:21:6</t>
+          <t>13:23:6</t>
         </is>
       </c>
       <c r="D402" t="n">
@@ -6871,11 +6871,11 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>8018</v>
+        <v>8070</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13:21:48</t>
+          <t>13:27:0</t>
         </is>
       </c>
       <c r="D403" t="n">
@@ -6887,11 +6887,11 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>8037</v>
+        <v>8087</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>13:23:42</t>
+          <t>13:28:42</t>
         </is>
       </c>
       <c r="D404" t="n">
@@ -6903,11 +6903,11 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>8071</v>
+        <v>8088</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13:27:6</t>
+          <t>13:28:48</t>
         </is>
       </c>
       <c r="D405" t="n">
@@ -6935,11 +6935,11 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>8102</v>
+        <v>8118</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13:30:12</t>
+          <t>13:31:48</t>
         </is>
       </c>
       <c r="D407" t="n">
@@ -6951,11 +6951,11 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>8166</v>
+        <v>8129</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13:36:36</t>
+          <t>13:32:54</t>
         </is>
       </c>
       <c r="D408" t="n">
@@ -6967,11 +6967,11 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>8170</v>
+        <v>8140</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13:37:0</t>
+          <t>13:34:0</t>
         </is>
       </c>
       <c r="D409" t="n">
@@ -6983,11 +6983,11 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>8178</v>
+        <v>8152</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13:37:48</t>
+          <t>13:35:12</t>
         </is>
       </c>
       <c r="D410" t="n">
@@ -7015,11 +7015,11 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>8222</v>
+        <v>8217</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13:42:12</t>
+          <t>13:41:42</t>
         </is>
       </c>
       <c r="D412" t="n">
@@ -7031,11 +7031,11 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8227</v>
+        <v>8219</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13:42:42</t>
+          <t>13:41:54</t>
         </is>
       </c>
       <c r="D413" t="n">
@@ -7047,11 +7047,11 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>8246</v>
+        <v>8265</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13:44:36</t>
+          <t>13:46:30</t>
         </is>
       </c>
       <c r="D414" t="n">
@@ -7063,11 +7063,11 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>8254</v>
+        <v>8281</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13:45:24</t>
+          <t>13:48:6</t>
         </is>
       </c>
       <c r="D415" t="n">
@@ -7095,11 +7095,11 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>8348</v>
+        <v>8344</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13:54:48</t>
+          <t>13:54:24</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -7111,11 +7111,11 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>8371</v>
+        <v>8372</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13:57:6</t>
+          <t>13:57:12</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -7127,11 +7127,11 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>8376</v>
+        <v>8377</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13:57:36</t>
+          <t>13:57:42</t>
         </is>
       </c>
       <c r="D419" t="n">
@@ -7143,11 +7143,11 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>8395</v>
+        <v>8388</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13:59:30</t>
+          <t>13:58:48</t>
         </is>
       </c>
       <c r="D420" t="n">
@@ -7175,11 +7175,11 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>8404</v>
+        <v>8423</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>14:0:24</t>
+          <t>14:2:18</t>
         </is>
       </c>
       <c r="D422" t="n">
@@ -7191,11 +7191,11 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>8415</v>
+        <v>8433</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>14:1:30</t>
+          <t>14:3:18</t>
         </is>
       </c>
       <c r="D423" t="n">
@@ -7207,11 +7207,11 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>8444</v>
+        <v>8465</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>14:4:24</t>
+          <t>14:6:30</t>
         </is>
       </c>
       <c r="D424" t="n">
@@ -7223,11 +7223,11 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>8465</v>
+        <v>8476</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>14:6:30</t>
+          <t>14:7:36</t>
         </is>
       </c>
       <c r="D425" t="n">
@@ -7255,11 +7255,11 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>8518</v>
+        <v>8500</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>14:11:48</t>
+          <t>14:10:0</t>
         </is>
       </c>
       <c r="D427" t="n">
@@ -7271,11 +7271,11 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>8534</v>
+        <v>8549</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>14:13:24</t>
+          <t>14:14:54</t>
         </is>
       </c>
       <c r="D428" t="n">
@@ -7287,11 +7287,11 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>8537</v>
+        <v>8564</v>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>14:13:42</t>
+          <t>14:16:24</t>
         </is>
       </c>
       <c r="D429" t="n">
@@ -7303,11 +7303,11 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>8557</v>
+        <v>8570</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>14:15:42</t>
+          <t>14:17:0</t>
         </is>
       </c>
       <c r="D430" t="n">
@@ -7351,11 +7351,11 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8642</v>
+        <v>8639</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>14:24:12</t>
+          <t>14:23:54</t>
         </is>
       </c>
       <c r="D433" t="n">
@@ -7367,11 +7367,11 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>8673</v>
+        <v>8641</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>14:27:18</t>
+          <t>14:24:6</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -7383,11 +7383,11 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>8682</v>
+        <v>8662</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>14:28:12</t>
+          <t>14:26:12</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -7415,11 +7415,11 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>8705</v>
+        <v>8733</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>14:30:30</t>
+          <t>14:33:18</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -7431,11 +7431,11 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>8739</v>
+        <v>8745</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>14:33:54</t>
+          <t>14:34:30</t>
         </is>
       </c>
       <c r="D438" t="n">
@@ -7447,11 +7447,11 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>8741</v>
+        <v>8759</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>14:34:6</t>
+          <t>14:35:54</t>
         </is>
       </c>
       <c r="D439" t="n">
@@ -7463,11 +7463,11 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>8771</v>
+        <v>8777</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>14:37:6</t>
+          <t>14:37:42</t>
         </is>
       </c>
       <c r="D440" t="n">
@@ -7495,11 +7495,11 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>8809</v>
+        <v>8808</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>14:40:54</t>
+          <t>14:40:48</t>
         </is>
       </c>
       <c r="D442" t="n">
@@ -7511,11 +7511,11 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>8810</v>
+        <v>8873</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>14:41:0</t>
+          <t>14:47:18</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -7527,11 +7527,11 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>8851</v>
+        <v>8887</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>14:45:6</t>
+          <t>14:48:42</t>
         </is>
       </c>
       <c r="D444" t="n">
@@ -7543,11 +7543,11 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8874</v>
+        <v>8894</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>14:47:24</t>
+          <t>14:49:24</t>
         </is>
       </c>
       <c r="D445" t="n">
@@ -7591,11 +7591,11 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>8947</v>
+        <v>8941</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>14:54:42</t>
+          <t>14:54:6</t>
         </is>
       </c>
       <c r="D448" t="n">
@@ -7607,11 +7607,11 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>8978</v>
+        <v>8953</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>14:57:48</t>
+          <t>14:55:18</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -7623,11 +7623,11 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>8984</v>
+        <v>8979</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>14:58:24</t>
+          <t>14:57:54</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -7655,11 +7655,11 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>9020</v>
+        <v>9011</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>15:2:0</t>
+          <t>15:1:6</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -7671,11 +7671,11 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>9039</v>
+        <v>9021</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>15:3:54</t>
+          <t>15:2:6</t>
         </is>
       </c>
       <c r="D453" t="n">
@@ -7687,11 +7687,11 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>9042</v>
+        <v>9073</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>15:4:12</t>
+          <t>15:7:18</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -7703,11 +7703,11 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>9045</v>
+        <v>9076</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:4:30</t>
+          <t>15:7:36</t>
         </is>
       </c>
       <c r="D455" t="n">
@@ -7735,11 +7735,11 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>9135</v>
+        <v>9141</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15:13:30</t>
+          <t>15:14:6</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -7751,11 +7751,11 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>9162</v>
+        <v>9181</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:16:12</t>
+          <t>15:18:6</t>
         </is>
       </c>
       <c r="D458" t="n">
@@ -7767,11 +7767,11 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9186</v>
+        <v>9187</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:18:36</t>
+          <t>15:18:42</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -7783,11 +7783,11 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>9193</v>
+        <v>9194</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>15:19:18</t>
+          <t>15:19:24</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -7815,11 +7815,11 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>9212</v>
+        <v>9264</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>15:21:12</t>
+          <t>15:26:24</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -7831,11 +7831,11 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>9224</v>
+        <v>9270</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>15:22:24</t>
+          <t>15:27:0</t>
         </is>
       </c>
       <c r="D463" t="n">
@@ -7847,11 +7847,11 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>9270</v>
+        <v>9287</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>15:27:0</t>
+          <t>15:28:42</t>
         </is>
       </c>
       <c r="D464" t="n">
@@ -7863,11 +7863,11 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>9284</v>
+        <v>9288</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>15:28:24</t>
+          <t>15:28:48</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -7895,11 +7895,11 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>9316</v>
+        <v>9315</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>15:31:36</t>
+          <t>15:31:30</t>
         </is>
       </c>
       <c r="D467" t="n">
@@ -7911,11 +7911,11 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>9324</v>
+        <v>9361</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>15:32:24</t>
+          <t>15:36:6</t>
         </is>
       </c>
       <c r="D468" t="n">
@@ -7927,11 +7927,11 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>9345</v>
+        <v>9369</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>15:34:30</t>
+          <t>15:36:54</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -7943,11 +7943,11 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>9385</v>
+        <v>9379</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>15:38:30</t>
+          <t>15:37:54</t>
         </is>
       </c>
       <c r="D470" t="n">
@@ -7975,11 +7975,11 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>9427</v>
+        <v>9405</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>15:42:42</t>
+          <t>15:40:30</t>
         </is>
       </c>
       <c r="D472" t="n">
@@ -7991,11 +7991,11 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>9455</v>
+        <v>9418</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>15:45:30</t>
+          <t>15:41:48</t>
         </is>
       </c>
       <c r="D473" t="n">
@@ -8007,11 +8007,11 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>9471</v>
+        <v>9444</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>15:47:6</t>
+          <t>15:44:24</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -8023,11 +8023,11 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>9481</v>
+        <v>9458</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>15:48:6</t>
+          <t>15:45:48</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -8055,11 +8055,11 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>15:52:18</t>
+          <t>15:52:12</t>
         </is>
       </c>
       <c r="D477" t="n">
@@ -8071,11 +8071,11 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>9539</v>
+        <v>9546</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>15:53:54</t>
+          <t>15:54:36</t>
         </is>
       </c>
       <c r="D478" t="n">
@@ -8087,11 +8087,11 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>9586</v>
+        <v>9564</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>15:58:36</t>
+          <t>15:56:24</t>
         </is>
       </c>
       <c r="D479" t="n">
@@ -8103,11 +8103,11 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>9589</v>
+        <v>9575</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>15:58:54</t>
+          <t>15:57:30</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -8135,11 +8135,11 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>9624</v>
+        <v>9603</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>16:2:24</t>
+          <t>16:0:18</t>
         </is>
       </c>
       <c r="D482" t="n">
@@ -8151,11 +8151,11 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>9629</v>
+        <v>9650</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>16:2:54</t>
+          <t>16:5:0</t>
         </is>
       </c>
       <c r="D483" t="n">
@@ -8167,11 +8167,11 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>9639</v>
+        <v>9662</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>16:3:54</t>
+          <t>16:6:12</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -8183,11 +8183,11 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>9677</v>
+        <v>9694</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>16:7:42</t>
+          <t>16:9:24</t>
         </is>
       </c>
       <c r="D485" t="n">
@@ -8215,11 +8215,11 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>9723</v>
+        <v>9715</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>16:12:18</t>
+          <t>16:11:30</t>
         </is>
       </c>
       <c r="D487" t="n">
@@ -8231,11 +8231,11 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>9737</v>
+        <v>9735</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>16:13:42</t>
+          <t>16:13:30</t>
         </is>
       </c>
       <c r="D488" t="n">
@@ -8247,11 +8247,11 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>9748</v>
+        <v>9751</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>16:14:48</t>
+          <t>16:15:6</t>
         </is>
       </c>
       <c r="D489" t="n">
@@ -8263,11 +8263,11 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>9753</v>
+        <v>9783</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>16:15:18</t>
+          <t>16:18:18</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -8295,11 +8295,11 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>9803</v>
+        <v>9848</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>16:20:18</t>
+          <t>16:24:48</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -8311,11 +8311,11 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>9805</v>
+        <v>9858</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>16:20:30</t>
+          <t>16:25:48</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -8327,11 +8327,11 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>9821</v>
+        <v>9872</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>16:22:6</t>
+          <t>16:27:12</t>
         </is>
       </c>
       <c r="D494" t="n">
@@ -8343,11 +8343,11 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>9885</v>
+        <v>9887</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>16:28:30</t>
+          <t>16:28:42</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -8375,11 +8375,11 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>9921</v>
+        <v>9964</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>16:32:6</t>
+          <t>16:36:24</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -8391,11 +8391,11 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>9926</v>
+        <v>9982</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>16:32:36</t>
+          <t>16:38:12</t>
         </is>
       </c>
       <c r="D498" t="n">
@@ -8407,11 +8407,11 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>9937</v>
+        <v>9987</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>16:33:42</t>
+          <t>16:38:42</t>
         </is>
       </c>
       <c r="D499" t="n">
@@ -8423,11 +8423,11 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>9986</v>
+        <v>9988</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>16:38:36</t>
+          <t>16:38:48</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -8455,11 +8455,11 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>10001</v>
+        <v>10014</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>16:40:6</t>
+          <t>16:41:24</t>
         </is>
       </c>
       <c r="D502" t="n">
@@ -8471,11 +8471,11 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>10028</v>
+        <v>10054</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>16:42:48</t>
+          <t>16:45:24</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -8487,11 +8487,11 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>10054</v>
+        <v>10071</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>16:45:24</t>
+          <t>16:47:6</t>
         </is>
       </c>
       <c r="D504" t="n">
@@ -8503,11 +8503,11 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>10062</v>
+        <v>10072</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>16:46:12</t>
+          <t>16:47:12</t>
         </is>
       </c>
       <c r="D505" t="n">
@@ -8535,11 +8535,11 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>10106</v>
+        <v>10108</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>16:50:36</t>
+          <t>16:50:48</t>
         </is>
       </c>
       <c r="D507" t="n">
@@ -8551,11 +8551,11 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>10134</v>
+        <v>10111</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>16:53:24</t>
+          <t>16:51:6</t>
         </is>
       </c>
       <c r="D508" t="n">
@@ -8567,11 +8567,11 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>10140</v>
+        <v>10175</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:54:0</t>
+          <t>16:57:30</t>
         </is>
       </c>
       <c r="D509" t="n">
@@ -8583,11 +8583,11 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>10182</v>
+        <v>10195</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:58:12</t>
+          <t>16:59:30</t>
         </is>
       </c>
       <c r="D510" t="n">
@@ -8615,11 +8615,11 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>10234</v>
+        <v>10242</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>17:3:24</t>
+          <t>17:4:12</t>
         </is>
       </c>
       <c r="D512" t="n">
@@ -8631,11 +8631,11 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>10245</v>
+        <v>10248</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>17:4:30</t>
+          <t>17:4:48</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -8647,11 +8647,11 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>10249</v>
+        <v>10270</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:4:54</t>
+          <t>17:7:0</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -8663,11 +8663,11 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>10253</v>
+        <v>10277</v>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:5:18</t>
+          <t>17:7:42</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -8695,11 +8695,11 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>10311</v>
+        <v>10302</v>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:11:6</t>
+          <t>17:10:12</t>
         </is>
       </c>
       <c r="D517" t="n">
@@ -8711,11 +8711,11 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>10357</v>
+        <v>10349</v>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>17:15:42</t>
+          <t>17:14:54</t>
         </is>
       </c>
       <c r="D518" t="n">
@@ -8727,11 +8727,11 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>10364</v>
+        <v>10363</v>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>17:16:24</t>
+          <t>17:16:18</t>
         </is>
       </c>
       <c r="D519" t="n">
@@ -8743,11 +8743,11 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>10372</v>
+        <v>10366</v>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>17:17:12</t>
+          <t>17:16:36</t>
         </is>
       </c>
       <c r="D520" t="n">
@@ -8775,11 +8775,11 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>10402</v>
+        <v>10400</v>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>17:20:12</t>
+          <t>17:20:0</t>
         </is>
       </c>
       <c r="D522" t="n">
@@ -8791,11 +8791,11 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>10441</v>
+        <v>10412</v>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>17:24:6</t>
+          <t>17:21:12</t>
         </is>
       </c>
       <c r="D523" t="n">
@@ -8807,11 +8807,11 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10481</v>
+        <v>10424</v>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>17:28:6</t>
+          <t>17:22:24</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -8823,11 +8823,11 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>10488</v>
+        <v>10458</v>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>17:28:48</t>
+          <t>17:25:48</t>
         </is>
       </c>
       <c r="D525" t="n">
@@ -8855,11 +8855,11 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>10536</v>
+        <v>10507</v>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>17:33:36</t>
+          <t>17:30:42</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -8871,11 +8871,11 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>10541</v>
+        <v>10555</v>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>17:34:6</t>
+          <t>17:35:30</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -8887,11 +8887,11 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>10579</v>
+        <v>10557</v>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>17:37:54</t>
+          <t>17:35:42</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -8903,11 +8903,11 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>10592</v>
+        <v>10558</v>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>17:39:12</t>
+          <t>17:35:48</t>
         </is>
       </c>
       <c r="D530" t="n">
@@ -8935,11 +8935,11 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>10605</v>
+        <v>10616</v>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>17:40:30</t>
+          <t>17:41:36</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -8951,11 +8951,11 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>10614</v>
+        <v>10638</v>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>17:41:24</t>
+          <t>17:43:48</t>
         </is>
       </c>
       <c r="D533" t="n">
@@ -8967,11 +8967,11 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>10637</v>
+        <v>10669</v>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>17:43:42</t>
+          <t>17:46:54</t>
         </is>
       </c>
       <c r="D534" t="n">
@@ -8983,11 +8983,11 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>10644</v>
+        <v>10694</v>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>17:44:24</t>
+          <t>17:49:24</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -9015,11 +9015,11 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>10706</v>
+        <v>10749</v>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>17:50:36</t>
+          <t>17:54:54</t>
         </is>
       </c>
       <c r="D537" t="n">
@@ -9031,11 +9031,11 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>10739</v>
+        <v>10757</v>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>17:53:54</t>
+          <t>17:55:42</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -9047,11 +9047,11 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>10769</v>
+        <v>10762</v>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>17:56:54</t>
+          <t>17:56:12</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -9063,11 +9063,11 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>10778</v>
+        <v>10764</v>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>17:57:48</t>
+          <t>17:56:24</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -9095,11 +9095,11 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>10803</v>
+        <v>10830</v>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>18:0:18</t>
+          <t>18:3:0</t>
         </is>
       </c>
       <c r="D542" t="n">
@@ -9111,11 +9111,11 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>10807</v>
+        <v>10832</v>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>18:0:42</t>
+          <t>18:3:12</t>
         </is>
       </c>
       <c r="D543" t="n">
@@ -9127,11 +9127,11 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>10852</v>
+        <v>10856</v>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>18:5:12</t>
+          <t>18:5:36</t>
         </is>
       </c>
       <c r="D544" t="n">
@@ -9143,11 +9143,11 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>10895</v>
+        <v>10888</v>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>18:9:30</t>
+          <t>18:8:48</t>
         </is>
       </c>
       <c r="D545" t="n">
@@ -9175,11 +9175,11 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>10907</v>
+        <v>10905</v>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>18:10:42</t>
+          <t>18:10:30</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -9191,11 +9191,11 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>10910</v>
+        <v>10929</v>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>18:11:0</t>
+          <t>18:12:54</t>
         </is>
       </c>
       <c r="D548" t="n">
@@ -9207,11 +9207,11 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>10918</v>
+        <v>10942</v>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>18:11:48</t>
+          <t>18:14:12</t>
         </is>
       </c>
       <c r="D549" t="n">
@@ -9223,11 +9223,11 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>10923</v>
+        <v>10946</v>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>18:12:18</t>
+          <t>18:14:36</t>
         </is>
       </c>
       <c r="D550" t="n">
@@ -9255,11 +9255,11 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>11015</v>
+        <v>11011</v>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>18:21:30</t>
+          <t>18:21:6</t>
         </is>
       </c>
       <c r="D552" t="n">
@@ -9271,11 +9271,11 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>11047</v>
+        <v>11038</v>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>18:24:42</t>
+          <t>18:23:48</t>
         </is>
       </c>
       <c r="D553" t="n">
@@ -9287,11 +9287,11 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>11070</v>
+        <v>11067</v>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>18:27:0</t>
+          <t>18:26:42</t>
         </is>
       </c>
       <c r="D554" t="n">
@@ -9303,11 +9303,11 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>11082</v>
+        <v>11081</v>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>18:28:12</t>
+          <t>18:28:6</t>
         </is>
       </c>
       <c r="D555" t="n">
@@ -9335,11 +9335,11 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>11130</v>
+        <v>11124</v>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>18:33:0</t>
+          <t>18:32:24</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -9351,11 +9351,11 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>11141</v>
+        <v>11143</v>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>18:34:6</t>
+          <t>18:34:18</t>
         </is>
       </c>
       <c r="D558" t="n">
@@ -9367,11 +9367,11 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>11182</v>
+        <v>11150</v>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>18:38:12</t>
+          <t>18:35:0</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -9383,11 +9383,11 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>11193</v>
+        <v>11169</v>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>18:39:18</t>
+          <t>18:36:54</t>
         </is>
       </c>
       <c r="D560" t="n">
@@ -9415,11 +9415,11 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>11225</v>
+        <v>11241</v>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>18:42:30</t>
+          <t>18:44:6</t>
         </is>
       </c>
       <c r="D562" t="n">
@@ -9431,11 +9431,11 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>11247</v>
+        <v>11244</v>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>18:44:42</t>
+          <t>18:44:24</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -9447,11 +9447,11 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>11282</v>
+        <v>11250</v>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>18:48:12</t>
+          <t>18:45:0</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -9463,11 +9463,11 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>11290</v>
+        <v>11279</v>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>18:49:0</t>
+          <t>18:47:54</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -9495,11 +9495,11 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>11346</v>
+        <v>11303</v>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:54:36</t>
+          <t>18:50:18</t>
         </is>
       </c>
       <c r="D567" t="n">
@@ -9511,11 +9511,11 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>11363</v>
+        <v>11312</v>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:56:18</t>
+          <t>18:51:12</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -9527,11 +9527,11 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>11365</v>
+        <v>11348</v>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>18:56:30</t>
+          <t>18:54:48</t>
         </is>
       </c>
       <c r="D569" t="n">
@@ -9543,11 +9543,11 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>11380</v>
+        <v>11381</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>18:58:0</t>
+          <t>18:58:6</t>
         </is>
       </c>
       <c r="D570" t="n">
@@ -9575,11 +9575,11 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>11446</v>
+        <v>11421</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:4:36</t>
+          <t>19:2:6</t>
         </is>
       </c>
       <c r="D572" t="n">
@@ -9591,11 +9591,11 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>11467</v>
+        <v>11459</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>19:6:42</t>
+          <t>19:5:54</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -9607,11 +9607,11 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>11483</v>
+        <v>11461</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>19:8:18</t>
+          <t>19:6:6</t>
         </is>
       </c>
       <c r="D574" t="n">
@@ -9623,11 +9623,11 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>11495</v>
+        <v>11489</v>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>19:9:30</t>
+          <t>19:8:54</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -9655,11 +9655,11 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>11501</v>
+        <v>11511</v>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>19:10:6</t>
+          <t>19:11:6</t>
         </is>
       </c>
       <c r="D577" t="n">
@@ -9671,11 +9671,11 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>11531</v>
+        <v>11529</v>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>19:13:6</t>
+          <t>19:12:54</t>
         </is>
       </c>
       <c r="D578" t="n">
@@ -9687,11 +9687,11 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>11539</v>
+        <v>11535</v>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>19:13:54</t>
+          <t>19:13:30</t>
         </is>
       </c>
       <c r="D579" t="n">
@@ -9703,11 +9703,11 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>11549</v>
+        <v>11584</v>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>19:14:54</t>
+          <t>19:18:24</t>
         </is>
       </c>
       <c r="D580" t="n">
@@ -9735,11 +9735,11 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>11605</v>
+        <v>11604</v>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>19:20:30</t>
+          <t>19:20:24</t>
         </is>
       </c>
       <c r="D582" t="n">
@@ -9751,11 +9751,11 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>11618</v>
+        <v>11624</v>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>19:21:48</t>
+          <t>19:22:24</t>
         </is>
       </c>
       <c r="D583" t="n">
@@ -9767,11 +9767,11 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>11627</v>
+        <v>11667</v>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>19:22:42</t>
+          <t>19:26:42</t>
         </is>
       </c>
       <c r="D584" t="n">
@@ -9783,11 +9783,11 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>11674</v>
+        <v>11669</v>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>19:27:24</t>
+          <t>19:26:54</t>
         </is>
       </c>
       <c r="D585" t="n">
@@ -9815,11 +9815,11 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>11708</v>
+        <v>11730</v>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>19:30:48</t>
+          <t>19:33:0</t>
         </is>
       </c>
       <c r="D587" t="n">
@@ -9831,11 +9831,11 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>11756</v>
+        <v>11775</v>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>19:35:36</t>
+          <t>19:37:30</t>
         </is>
       </c>
       <c r="D588" t="n">
@@ -9847,11 +9847,11 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11768</v>
+        <v>11786</v>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>19:36:48</t>
+          <t>19:38:36</t>
         </is>
       </c>
       <c r="D589" t="n">
@@ -9863,11 +9863,11 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>11781</v>
+        <v>11789</v>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>19:38:6</t>
+          <t>19:38:54</t>
         </is>
       </c>
       <c r="D590" t="n">
@@ -9895,11 +9895,11 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>11833</v>
+        <v>11806</v>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>19:43:18</t>
+          <t>19:40:36</t>
         </is>
       </c>
       <c r="D592" t="n">
@@ -9911,11 +9911,11 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>11842</v>
+        <v>11811</v>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>19:44:12</t>
+          <t>19:41:6</t>
         </is>
       </c>
       <c r="D593" t="n">
@@ -9927,11 +9927,11 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>11849</v>
+        <v>11815</v>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>19:44:54</t>
+          <t>19:41:30</t>
         </is>
       </c>
       <c r="D594" t="n">
@@ -9943,11 +9943,11 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>11867</v>
+        <v>11840</v>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>19:46:42</t>
+          <t>19:44:0</t>
         </is>
       </c>
       <c r="D595" t="n">
@@ -9975,11 +9975,11 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>11901</v>
+        <v>11979</v>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>19:50:6</t>
+          <t>19:57:54</t>
         </is>
       </c>
       <c r="D597" t="n">
@@ -9991,11 +9991,11 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>11929</v>
+        <v>11980</v>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>19:52:54</t>
+          <t>19:58:0</t>
         </is>
       </c>
       <c r="D598" t="n">
@@ -10007,11 +10007,11 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>11931</v>
+        <v>11989</v>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>19:53:6</t>
+          <t>19:58:54</t>
         </is>
       </c>
       <c r="D599" t="n">
@@ -10023,11 +10023,11 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>11936</v>
+        <v>11998</v>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>19:53:36</t>
+          <t>19:59:48</t>
         </is>
       </c>
       <c r="D600" t="n">
@@ -10055,11 +10055,11 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>12017</v>
+        <v>12021</v>
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>20:1:42</t>
+          <t>20:2:6</t>
         </is>
       </c>
       <c r="D602" t="n">
@@ -10071,11 +10071,11 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>12027</v>
+        <v>12050</v>
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>20:2:42</t>
+          <t>20:5:0</t>
         </is>
       </c>
       <c r="D603" t="n">
@@ -10087,11 +10087,11 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>12054</v>
+        <v>12091</v>
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>20:5:24</t>
+          <t>20:9:6</t>
         </is>
       </c>
       <c r="D604" t="n">
@@ -10103,11 +10103,11 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12091</v>
+        <v>12097</v>
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>20:9:6</t>
+          <t>20:9:42</t>
         </is>
       </c>
       <c r="D605" t="n">
@@ -10135,11 +10135,11 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>12114</v>
+        <v>12133</v>
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>20:11:24</t>
+          <t>20:13:18</t>
         </is>
       </c>
       <c r="D607" t="n">
@@ -10151,11 +10151,11 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>12123</v>
+        <v>12162</v>
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>20:12:18</t>
+          <t>20:16:12</t>
         </is>
       </c>
       <c r="D608" t="n">
@@ -10167,11 +10167,11 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>12179</v>
+        <v>12189</v>
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>20:17:54</t>
+          <t>20:18:54</t>
         </is>
       </c>
       <c r="D609" t="n">
@@ -10215,11 +10215,11 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>12252</v>
+        <v>12221</v>
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>20:25:12</t>
+          <t>20:22:6</t>
         </is>
       </c>
       <c r="D612" t="n">
@@ -10231,11 +10231,11 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>12253</v>
+        <v>12234</v>
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>20:25:18</t>
+          <t>20:23:24</t>
         </is>
       </c>
       <c r="D613" t="n">
@@ -10247,11 +10247,11 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>12280</v>
+        <v>12250</v>
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>20:28:0</t>
+          <t>20:25:0</t>
         </is>
       </c>
       <c r="D614" t="n">
@@ -10263,11 +10263,11 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>12290</v>
+        <v>12262</v>
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>20:29:0</t>
+          <t>20:26:12</t>
         </is>
       </c>
       <c r="D615" t="n">
@@ -10295,11 +10295,11 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>12309</v>
+        <v>12308</v>
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>20:30:54</t>
+          <t>20:30:48</t>
         </is>
       </c>
       <c r="D617" t="n">
@@ -10311,11 +10311,11 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>12321</v>
+        <v>12336</v>
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>20:32:6</t>
+          <t>20:33:36</t>
         </is>
       </c>
       <c r="D618" t="n">
@@ -10327,11 +10327,11 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>12352</v>
+        <v>12337</v>
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>20:35:12</t>
+          <t>20:33:42</t>
         </is>
       </c>
       <c r="D619" t="n">
@@ -10343,11 +10343,11 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>12396</v>
+        <v>12366</v>
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>20:39:36</t>
+          <t>20:36:36</t>
         </is>
       </c>
       <c r="D620" t="n">
@@ -10375,11 +10375,11 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>12409</v>
+        <v>12402</v>
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>20:40:54</t>
+          <t>20:40:12</t>
         </is>
       </c>
       <c r="D622" t="n">
@@ -10391,11 +10391,11 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>12447</v>
+        <v>12469</v>
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>20:44:42</t>
+          <t>20:46:54</t>
         </is>
       </c>
       <c r="D623" t="n">
@@ -10407,11 +10407,11 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>12450</v>
+        <v>12489</v>
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>20:45:0</t>
+          <t>20:48:54</t>
         </is>
       </c>
       <c r="D624" t="n">
@@ -10423,11 +10423,11 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>12490</v>
+        <v>12495</v>
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>20:49:0</t>
+          <t>20:49:30</t>
         </is>
       </c>
       <c r="D625" t="n">
@@ -10455,11 +10455,11 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>12527</v>
+        <v>12506</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>20:52:42</t>
+          <t>20:50:36</t>
         </is>
       </c>
       <c r="D627" t="n">
@@ -10471,11 +10471,11 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>12535</v>
+        <v>12570</v>
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>20:53:30</t>
+          <t>20:57:0</t>
         </is>
       </c>
       <c r="D628" t="n">
@@ -10487,11 +10487,11 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>12559</v>
+        <v>12573</v>
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>20:55:54</t>
+          <t>20:57:18</t>
         </is>
       </c>
       <c r="D629" t="n">
@@ -10503,11 +10503,11 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>12579</v>
+        <v>12583</v>
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>20:57:54</t>
+          <t>20:58:18</t>
         </is>
       </c>
       <c r="D630" t="n">
@@ -10535,11 +10535,11 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>12637</v>
+        <v>12654</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>21:3:42</t>
+          <t>21:5:24</t>
         </is>
       </c>
       <c r="D632" t="n">
@@ -10551,11 +10551,11 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>12646</v>
+        <v>12674</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>21:4:36</t>
+          <t>21:7:24</t>
         </is>
       </c>
       <c r="D633" t="n">
@@ -10567,11 +10567,11 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>12682</v>
+        <v>12675</v>
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>21:8:12</t>
+          <t>21:7:30</t>
         </is>
       </c>
       <c r="D634" t="n">
@@ -10583,11 +10583,11 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>12685</v>
+        <v>12691</v>
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>21:8:30</t>
+          <t>21:9:6</t>
         </is>
       </c>
       <c r="D635" t="n">
@@ -10615,11 +10615,11 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>12702</v>
+        <v>12705</v>
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>21:10:12</t>
+          <t>21:10:30</t>
         </is>
       </c>
       <c r="D637" t="n">
@@ -10631,11 +10631,11 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>12706</v>
+        <v>12739</v>
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>21:10:36</t>
+          <t>21:13:54</t>
         </is>
       </c>
       <c r="D638" t="n">
@@ -10647,11 +10647,11 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>12724</v>
+        <v>12764</v>
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>21:12:24</t>
+          <t>21:16:24</t>
         </is>
       </c>
       <c r="D639" t="n">
@@ -10663,11 +10663,11 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>12778</v>
+        <v>12771</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>21:17:48</t>
+          <t>21:17:6</t>
         </is>
       </c>
       <c r="D640" t="n">
@@ -10695,11 +10695,11 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>12802</v>
+        <v>12816</v>
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>21:20:12</t>
+          <t>21:21:36</t>
         </is>
       </c>
       <c r="D642" t="n">
@@ -10711,11 +10711,11 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>12814</v>
+        <v>12834</v>
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>21:21:24</t>
+          <t>21:23:24</t>
         </is>
       </c>
       <c r="D643" t="n">
@@ -10727,11 +10727,11 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>12851</v>
+        <v>12859</v>
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>21:25:6</t>
+          <t>21:25:54</t>
         </is>
       </c>
       <c r="D644" t="n">
@@ -10743,11 +10743,11 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>12890</v>
+        <v>12872</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>21:29:0</t>
+          <t>21:27:12</t>
         </is>
       </c>
       <c r="D645" t="n">
@@ -10791,11 +10791,11 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>12943</v>
+        <v>12950</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>21:34:18</t>
+          <t>21:35:0</t>
         </is>
       </c>
       <c r="D648" t="n">
@@ -10807,11 +10807,11 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>12952</v>
+        <v>12985</v>
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>21:35:12</t>
+          <t>21:38:30</t>
         </is>
       </c>
       <c r="D649" t="n">
@@ -10823,11 +10823,11 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>12957</v>
+        <v>12987</v>
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>21:35:42</t>
+          <t>21:38:42</t>
         </is>
       </c>
       <c r="D650" t="n">
@@ -10855,11 +10855,11 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>13011</v>
+        <v>13012</v>
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>21:41:6</t>
+          <t>21:41:12</t>
         </is>
       </c>
       <c r="D652" t="n">
@@ -10871,11 +10871,11 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>13035</v>
+        <v>13019</v>
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>21:43:30</t>
+          <t>21:41:54</t>
         </is>
       </c>
       <c r="D653" t="n">
@@ -10887,11 +10887,11 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>13041</v>
+        <v>13063</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>21:44:6</t>
+          <t>21:46:18</t>
         </is>
       </c>
       <c r="D654" t="n">
@@ -10935,11 +10935,11 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>13152</v>
+        <v>13125</v>
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>21:55:12</t>
+          <t>21:52:30</t>
         </is>
       </c>
       <c r="D657" t="n">
@@ -10951,11 +10951,11 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>13166</v>
+        <v>13158</v>
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>21:56:36</t>
+          <t>21:55:48</t>
         </is>
       </c>
       <c r="D658" t="n">
@@ -10967,11 +10967,11 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>13178</v>
+        <v>13179</v>
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>21:57:48</t>
+          <t>21:57:54</t>
         </is>
       </c>
       <c r="D659" t="n">
@@ -10983,11 +10983,11 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>13183</v>
+        <v>13181</v>
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>21:58:18</t>
+          <t>21:58:6</t>
         </is>
       </c>
       <c r="D660" t="n">
@@ -11015,11 +11015,11 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>13203</v>
+        <v>13204</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>22:0:18</t>
+          <t>22:0:24</t>
         </is>
       </c>
       <c r="D662" t="n">
@@ -11031,11 +11031,11 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>13218</v>
+        <v>13223</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>22:1:48</t>
+          <t>22:2:18</t>
         </is>
       </c>
       <c r="D663" t="n">
@@ -11047,11 +11047,11 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>13283</v>
+        <v>13243</v>
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>22:8:18</t>
+          <t>22:4:18</t>
         </is>
       </c>
       <c r="D664" t="n">
@@ -11063,11 +11063,11 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>13297</v>
+        <v>13287</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>22:9:42</t>
+          <t>22:8:42</t>
         </is>
       </c>
       <c r="D665" t="n">
@@ -11095,11 +11095,11 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>13311</v>
+        <v>13324</v>
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>22:11:6</t>
+          <t>22:12:24</t>
         </is>
       </c>
       <c r="D667" t="n">
@@ -11111,11 +11111,11 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>13346</v>
+        <v>13327</v>
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>22:14:36</t>
+          <t>22:12:42</t>
         </is>
       </c>
       <c r="D668" t="n">
@@ -11127,11 +11127,11 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>13358</v>
+        <v>13350</v>
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>22:15:48</t>
+          <t>22:15:0</t>
         </is>
       </c>
       <c r="D669" t="n">
@@ -11143,11 +11143,11 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>13395</v>
+        <v>13385</v>
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>22:19:30</t>
+          <t>22:18:30</t>
         </is>
       </c>
       <c r="D670" t="n">
@@ -11175,11 +11175,11 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>13418</v>
+        <v>13400</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>22:21:48</t>
+          <t>22:20:0</t>
         </is>
       </c>
       <c r="D672" t="n">
@@ -11191,11 +11191,11 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>13445</v>
+        <v>13404</v>
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>22:24:30</t>
+          <t>22:20:24</t>
         </is>
       </c>
       <c r="D673" t="n">
@@ -11207,11 +11207,11 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>13452</v>
+        <v>13459</v>
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>22:25:12</t>
+          <t>22:25:54</t>
         </is>
       </c>
       <c r="D674" t="n">
@@ -11223,11 +11223,11 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>13477</v>
+        <v>13472</v>
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>22:27:42</t>
+          <t>22:27:12</t>
         </is>
       </c>
       <c r="D675" t="n">
@@ -11255,11 +11255,11 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>13552</v>
+        <v>13528</v>
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>22:35:12</t>
+          <t>22:32:48</t>
         </is>
       </c>
       <c r="D677" t="n">
@@ -11271,11 +11271,11 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>13553</v>
+        <v>13548</v>
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>22:35:18</t>
+          <t>22:34:48</t>
         </is>
       </c>
       <c r="D678" t="n">
@@ -11287,11 +11287,11 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>13554</v>
+        <v>13567</v>
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>22:35:24</t>
+          <t>22:36:42</t>
         </is>
       </c>
       <c r="D679" t="n">
@@ -11303,11 +11303,11 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>13579</v>
+        <v>13572</v>
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>22:37:54</t>
+          <t>22:37:12</t>
         </is>
       </c>
       <c r="D680" t="n">
@@ -11335,11 +11335,11 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>13643</v>
+        <v>13615</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>22:44:18</t>
+          <t>22:41:30</t>
         </is>
       </c>
       <c r="D682" t="n">
@@ -11351,11 +11351,11 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>13653</v>
+        <v>13621</v>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>22:45:18</t>
+          <t>22:42:6</t>
         </is>
       </c>
       <c r="D683" t="n">
@@ -11367,11 +11367,11 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>13684</v>
+        <v>13661</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>22:48:24</t>
+          <t>22:46:6</t>
         </is>
       </c>
       <c r="D684" t="n">
@@ -11383,11 +11383,11 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>13686</v>
+        <v>13693</v>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>22:48:36</t>
+          <t>22:49:18</t>
         </is>
       </c>
       <c r="D685" t="n">
@@ -11415,11 +11415,11 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>13702</v>
+        <v>13705</v>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>22:50:12</t>
+          <t>22:50:30</t>
         </is>
       </c>
       <c r="D687" t="n">
@@ -11431,11 +11431,11 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>13722</v>
+        <v>13723</v>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>22:52:12</t>
+          <t>22:52:18</t>
         </is>
       </c>
       <c r="D688" t="n">
@@ -11447,11 +11447,11 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>13752</v>
+        <v>13738</v>
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>22:55:12</t>
+          <t>22:53:48</t>
         </is>
       </c>
       <c r="D689" t="n">
@@ -11463,11 +11463,11 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>13798</v>
+        <v>13746</v>
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>22:59:48</t>
+          <t>22:54:36</t>
         </is>
       </c>
       <c r="D690" t="n">
@@ -11495,11 +11495,11 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>13810</v>
+        <v>13836</v>
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>23:1:0</t>
+          <t>23:3:36</t>
         </is>
       </c>
       <c r="D692" t="n">
@@ -11511,11 +11511,11 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>13823</v>
+        <v>13870</v>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>23:2:18</t>
+          <t>23:7:0</t>
         </is>
       </c>
       <c r="D693" t="n">
@@ -11527,11 +11527,11 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>13836</v>
+        <v>13892</v>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>23:3:36</t>
+          <t>23:9:12</t>
         </is>
       </c>
       <c r="D694" t="n">
@@ -11543,11 +11543,11 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>13872</v>
+        <v>13896</v>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>23:7:12</t>
+          <t>23:9:36</t>
         </is>
       </c>
       <c r="D695" t="n">
@@ -11575,11 +11575,11 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>13907</v>
+        <v>13917</v>
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>23:10:42</t>
+          <t>23:11:42</t>
         </is>
       </c>
       <c r="D697" t="n">
@@ -11591,11 +11591,11 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>13956</v>
+        <v>13931</v>
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>23:15:36</t>
+          <t>23:13:6</t>
         </is>
       </c>
       <c r="D698" t="n">
@@ -11607,11 +11607,11 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>13968</v>
+        <v>13933</v>
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>23:16:48</t>
+          <t>23:13:18</t>
         </is>
       </c>
       <c r="D699" t="n">
@@ -11623,11 +11623,11 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>13983</v>
+        <v>13951</v>
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>23:18:18</t>
+          <t>23:15:6</t>
         </is>
       </c>
       <c r="D700" t="n">
@@ -11655,11 +11655,11 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>14024</v>
+        <v>14018</v>
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>23:22:24</t>
+          <t>23:21:48</t>
         </is>
       </c>
       <c r="D702" t="n">
@@ -11671,11 +11671,11 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>14032</v>
+        <v>14034</v>
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>23:23:12</t>
+          <t>23:23:24</t>
         </is>
       </c>
       <c r="D703" t="n">
@@ -11687,11 +11687,11 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>14048</v>
+        <v>14059</v>
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>23:24:48</t>
+          <t>23:25:54</t>
         </is>
       </c>
       <c r="D704" t="n">
@@ -11703,11 +11703,11 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>14051</v>
+        <v>14094</v>
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>23:25:6</t>
+          <t>23:29:24</t>
         </is>
       </c>
       <c r="D705" t="n">
@@ -11735,11 +11735,11 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>14109</v>
+        <v>14122</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>23:30:54</t>
+          <t>23:32:12</t>
         </is>
       </c>
       <c r="D707" t="n">
@@ -11751,11 +11751,11 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>14131</v>
+        <v>14123</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>23:33:6</t>
+          <t>23:32:18</t>
         </is>
       </c>
       <c r="D708" t="n">
@@ -11767,11 +11767,11 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>14147</v>
+        <v>14160</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>23:34:42</t>
+          <t>23:36:0</t>
         </is>
       </c>
       <c r="D709" t="n">
@@ -11783,11 +11783,11 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>14182</v>
+        <v>14163</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>23:38:12</t>
+          <t>23:36:18</t>
         </is>
       </c>
       <c r="D710" t="n">
@@ -11815,11 +11815,11 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>14218</v>
+        <v>14226</v>
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>23:41:48</t>
+          <t>23:42:36</t>
         </is>
       </c>
       <c r="D712" t="n">
@@ -11831,11 +11831,11 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>14223</v>
+        <v>14276</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>23:42:18</t>
+          <t>23:47:36</t>
         </is>
       </c>
       <c r="D713" t="n">
@@ -11847,11 +11847,11 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>14273</v>
+        <v>14285</v>
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>23:47:18</t>
+          <t>23:48:30</t>
         </is>
       </c>
       <c r="D714" t="n">
@@ -11863,11 +11863,11 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>14281</v>
+        <v>14286</v>
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>23:48:6</t>
+          <t>23:48:36</t>
         </is>
       </c>
       <c r="D715" t="n">
@@ -11895,11 +11895,11 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>14308</v>
+        <v>14311</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>23:50:48</t>
+          <t>23:51:6</t>
         </is>
       </c>
       <c r="D717" t="n">
@@ -11911,11 +11911,11 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>14321</v>
+        <v>14312</v>
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>23:52:6</t>
+          <t>23:51:12</t>
         </is>
       </c>
       <c r="D718" t="n">
@@ -11927,11 +11927,11 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>14331</v>
+        <v>14353</v>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>23:53:6</t>
+          <t>23:55:18</t>
         </is>
       </c>
       <c r="D719" t="n">
@@ -11943,11 +11943,11 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>14339</v>
+        <v>14393</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>23:53:54</t>
+          <t>23:59:18</t>
         </is>
       </c>
       <c r="D720" t="n">
